--- a/silver.xlsx
+++ b/silver.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\liftvan_ypf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6777B6-A6D8-4139-B038-DDBF55E63037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8CA8F5-3AD7-4C13-BC65-1E6C448C3748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="825" windowWidth="20490" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>destino</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>cuarenta</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Alexandria (EGALY)</t>
@@ -422,7 +416,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$$]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$$]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -504,33 +498,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -816,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,1605 +821,1545 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>2250</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2350</v>
+        <v>2970</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3070</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>1573</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1931</v>
+        <v>2293</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2651</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1330</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1390</v>
+        <v>2050</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>5026</v>
-      </c>
-      <c r="C5" s="8">
-        <v>5490</v>
+        <v>5746</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>1852</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2250</v>
+        <v>2572</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2970</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>5395</v>
-      </c>
-      <c r="C7" s="8">
-        <v>5450</v>
+        <v>6115</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>3010</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3210</v>
+        <v>3730</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3930</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>4590</v>
-      </c>
-      <c r="C9" s="8">
-        <v>4690</v>
+        <v>5310</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>1515</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1760</v>
+        <v>2235</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2480</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>2880</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3270</v>
+        <v>3600</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3990</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>1880</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1980</v>
+        <v>2600</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2700</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>1330</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1395</v>
+        <v>2050</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2115</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>2210</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2317</v>
+        <v>2930</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3037</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>1210</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1530</v>
+        <v>1930</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2250</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>3225</v>
-      </c>
-      <c r="C18" s="8">
-        <v>3825</v>
+        <v>3945</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4545</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C19" s="8">
-        <v>1300</v>
+        <v>1920</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="8">
-        <v>7840</v>
+      <c r="C21" s="2">
+        <v>8560</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>3360</v>
-      </c>
-      <c r="C22" s="8">
-        <v>3660</v>
+        <v>4080</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4380</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>3510</v>
-      </c>
-      <c r="C23" s="8">
-        <v>3610</v>
+        <v>4230</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4330</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>3755</v>
-      </c>
-      <c r="C24" s="8">
-        <v>4100</v>
+        <v>4475</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4820</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>3590</v>
-      </c>
-      <c r="C25" s="8">
-        <v>4065</v>
+        <v>4310</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4785</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>5395</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5450</v>
+        <v>6115</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6170</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>5500</v>
-      </c>
-      <c r="C27" s="8">
-        <v>5600</v>
+        <v>6220</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6320</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>5600</v>
-      </c>
-      <c r="C28" s="8">
-        <v>5750</v>
+        <v>6320</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6470</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>1725</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1990</v>
+        <v>2445</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2710</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2">
-        <v>1630</v>
-      </c>
-      <c r="C30" s="8">
-        <v>2650</v>
+        <v>2350</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3370</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>4390</v>
-      </c>
-      <c r="C31" s="8">
-        <v>4490</v>
+        <v>5110</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5210</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>5600</v>
-      </c>
-      <c r="C32" s="8">
-        <v>5990</v>
+        <v>6320</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6710</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>5590</v>
-      </c>
-      <c r="C33" s="8">
-        <v>5710</v>
+        <v>6310</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6430</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>2100</v>
-      </c>
-      <c r="C34" s="8">
-        <v>3370</v>
+        <v>2820</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4090</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>2310</v>
-      </c>
-      <c r="C37" s="8">
-        <v>3100</v>
+        <v>3030</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3820</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>1615</v>
-      </c>
-      <c r="C38" s="8">
-        <v>1960</v>
+        <v>2335</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2680</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="2">
-        <v>2400</v>
-      </c>
-      <c r="C39" s="8">
-        <v>2740</v>
+        <v>3120</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3460</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>1515</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1760</v>
+        <v>2235</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2480</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2">
-        <v>5855</v>
-      </c>
-      <c r="C41" s="8">
-        <v>5955</v>
+        <v>6575</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6675</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
-        <v>1930</v>
-      </c>
-      <c r="C42" s="8">
-        <v>2000</v>
+        <v>2650</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2720</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>2250</v>
-      </c>
-      <c r="C43" s="8">
-        <v>2820</v>
+        <v>2970</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3540</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>3370</v>
-      </c>
-      <c r="C44" s="8">
-        <v>3660</v>
+        <v>4090</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4380</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="2">
-        <v>1855</v>
-      </c>
-      <c r="C45" s="8">
-        <v>2250</v>
+        <v>2575</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2970</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>1330</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1395</v>
+        <v>2050</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2115</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
-        <v>3550</v>
-      </c>
-      <c r="C48" s="8">
-        <v>3630</v>
+        <v>4270</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4350</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
-        <v>1790</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2490</v>
+        <v>2510</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3210</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>4450</v>
-      </c>
-      <c r="C50" s="8">
-        <v>4620</v>
+        <v>5170</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5340</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C51" s="8">
-        <v>3235</v>
+        <v>2320</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3955</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2">
-        <v>5850</v>
-      </c>
-      <c r="C52" s="8">
-        <v>5970</v>
+        <v>6570</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6690</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2">
-        <v>1845</v>
-      </c>
-      <c r="C53" s="8">
-        <v>2335</v>
+        <v>2565</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3055</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2">
-        <v>2445</v>
-      </c>
-      <c r="C54" s="8">
-        <v>3225</v>
+        <v>3165</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3945</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>1330</v>
-      </c>
-      <c r="C56" s="8">
-        <v>1395</v>
+        <v>2050</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2115</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>1570</v>
-      </c>
-      <c r="C58" s="8">
-        <v>1910</v>
+        <v>2290</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2630</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
-        <v>3215</v>
-      </c>
-      <c r="C59" s="8">
-        <v>3610</v>
+        <v>3935</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4330</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
-        <v>1265</v>
-      </c>
-      <c r="C60" s="8">
-        <v>1760</v>
+        <v>1985</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2480</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
-        <v>1300</v>
-      </c>
-      <c r="C61" s="8">
-        <v>1330</v>
+        <v>2020</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2050</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>3835</v>
-      </c>
-      <c r="C62" s="8">
-        <v>3985</v>
+        <v>4555</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4705</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="3">
-        <v>3835</v>
-      </c>
-      <c r="C63" s="9">
-        <v>3985</v>
+        <v>4555</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4705</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64" s="3">
-        <v>6220</v>
-      </c>
-      <c r="C64" s="9">
-        <v>6370</v>
+        <v>6940</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7090</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
-        <v>3485</v>
-      </c>
-      <c r="C65" s="9">
-        <v>3785</v>
+        <v>4205</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4505</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3">
-        <v>2610</v>
-      </c>
-      <c r="C66" s="9">
-        <v>2675</v>
+        <v>3330</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3395</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
-        <v>1790</v>
-      </c>
-      <c r="C67" s="9">
-        <v>2190</v>
+        <v>2510</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2910</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3">
-        <v>1285</v>
-      </c>
-      <c r="C69" s="9">
-        <v>1375</v>
+        <v>2005</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2095</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3">
-        <v>3750</v>
-      </c>
-      <c r="C70" s="9">
-        <v>4090</v>
+        <v>4470</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4810</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3">
-        <v>4395</v>
-      </c>
-      <c r="C71" s="9">
-        <v>6235</v>
+        <v>5115</v>
+      </c>
+      <c r="C71" s="3">
+        <v>6955</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="3">
-        <v>2010</v>
-      </c>
-      <c r="C72" s="9">
-        <v>2160</v>
+        <v>2730</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2880</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" s="3">
-        <v>3640</v>
-      </c>
-      <c r="C73" s="9">
-        <v>3615</v>
+        <v>4360</v>
+      </c>
+      <c r="C73" s="3">
+        <v>4335</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3">
-        <v>2150</v>
-      </c>
-      <c r="C74" s="9">
-        <v>2399</v>
+        <v>2870</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3119</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75" s="3">
-        <v>2165</v>
-      </c>
-      <c r="C75" s="9">
-        <v>3050</v>
+        <v>2885</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3770</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="9">
-        <v>6470</v>
+        <v>77</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3">
+        <v>7190</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78" s="3">
-        <v>1630</v>
-      </c>
-      <c r="C78" s="9">
-        <v>2520</v>
+        <v>2350</v>
+      </c>
+      <c r="C78" s="3">
+        <v>3240</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3">
-        <v>10990</v>
-      </c>
-      <c r="C79" s="9">
-        <v>14570</v>
+        <v>11710</v>
+      </c>
+      <c r="C79" s="3">
+        <v>15290</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B80" s="3">
-        <v>4600</v>
-      </c>
-      <c r="C80" s="9">
-        <v>5960</v>
+        <v>5320</v>
+      </c>
+      <c r="C80" s="3">
+        <v>6680</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B81" s="3">
-        <v>3640</v>
-      </c>
-      <c r="C81" s="9">
-        <v>3615</v>
+        <v>4360</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4335</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3">
-        <v>4655</v>
-      </c>
-      <c r="C82" s="9">
-        <v>4645</v>
+        <v>5375</v>
+      </c>
+      <c r="C82" s="3">
+        <v>5365</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B83" s="3">
-        <v>4660</v>
-      </c>
-      <c r="C83" s="9">
-        <v>4635</v>
+        <v>5380</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5355</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>5180</v>
-      </c>
-      <c r="C84" s="8">
-        <v>5440</v>
+        <v>5900</v>
+      </c>
+      <c r="C84" s="2">
+        <v>6160</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>5780</v>
-      </c>
-      <c r="C85" s="8">
-        <v>6757</v>
+        <v>6500</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7477</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>2265</v>
-      </c>
-      <c r="C86" s="8">
-        <v>2820</v>
+        <v>2985</v>
+      </c>
+      <c r="C86" s="2">
+        <v>3540</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>4190</v>
-      </c>
-      <c r="C87" s="8">
-        <v>4530</v>
+        <v>4910</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5250</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>3280</v>
-      </c>
-      <c r="C88" s="8">
-        <v>3715</v>
+        <v>4000</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4435</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>5490</v>
-      </c>
-      <c r="C89" s="8">
-        <v>5561</v>
+        <v>6210</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6281</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>7990</v>
-      </c>
-      <c r="C90" s="8">
-        <v>8370</v>
+        <v>8710</v>
+      </c>
+      <c r="C90" s="2">
+        <v>9090</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>4660</v>
-      </c>
-      <c r="C91" s="8">
-        <v>3635</v>
+        <v>5380</v>
+      </c>
+      <c r="C91" s="2">
+        <v>4355</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>2060</v>
-      </c>
-      <c r="C92" s="8">
-        <v>2345</v>
+        <v>2780</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3065</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>3750</v>
-      </c>
-      <c r="C94" s="8">
-        <v>4090</v>
+        <v>4470</v>
+      </c>
+      <c r="C94" s="2">
+        <v>4810</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B95" s="3">
-        <v>3750</v>
-      </c>
-      <c r="C95" s="9">
-        <v>4090</v>
+        <v>4470</v>
+      </c>
+      <c r="C95" s="3">
+        <v>4810</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B96" s="3">
-        <v>2800</v>
-      </c>
-      <c r="C96" s="9">
-        <v>3110</v>
+        <v>3520</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3830</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B97" s="3">
-        <v>3750</v>
-      </c>
-      <c r="C97" s="9">
-        <v>4090</v>
+        <v>4470</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4810</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B98" s="3">
-        <v>6160</v>
-      </c>
-      <c r="C98" s="9">
-        <v>7250</v>
+        <v>6880</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7970</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B99" s="3">
-        <v>1280</v>
-      </c>
-      <c r="C99" s="9">
-        <v>1375</v>
+        <v>2000</v>
+      </c>
+      <c r="C99" s="3">
+        <v>2095</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B100" s="3">
-        <v>2060</v>
-      </c>
-      <c r="C100" s="9">
-        <v>2600</v>
+        <v>2780</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3320</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B101" s="3">
-        <v>2415</v>
-      </c>
-      <c r="C101" s="9">
-        <v>2900</v>
+        <v>3135</v>
+      </c>
+      <c r="C101" s="3">
+        <v>3620</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B102" s="3">
-        <v>830</v>
-      </c>
-      <c r="C102" s="9">
-        <v>895</v>
+        <v>1550</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1615</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B103" s="3">
-        <v>1250</v>
-      </c>
-      <c r="C103" s="9">
-        <v>950</v>
+        <v>1970</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1670</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B105" s="3">
-        <v>950</v>
-      </c>
-      <c r="C105" s="9">
-        <v>1000</v>
+        <v>1670</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1720</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>3170</v>
-      </c>
-      <c r="C106" s="8">
-        <v>3470</v>
+        <v>3890</v>
+      </c>
+      <c r="C106" s="2">
+        <v>4190</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>4090</v>
-      </c>
-      <c r="C108" s="8">
-        <v>4420</v>
+        <v>4810</v>
+      </c>
+      <c r="C108" s="2">
+        <v>5140</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>4490</v>
-      </c>
-      <c r="C109" s="8">
-        <v>4830</v>
+        <v>5210</v>
+      </c>
+      <c r="C109" s="2">
+        <v>5550</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2">
-        <v>3750</v>
-      </c>
-      <c r="C110" s="8">
-        <v>4090</v>
+        <v>4470</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4810</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2">
-        <v>4315</v>
-      </c>
-      <c r="C111" s="8">
-        <v>4655</v>
+        <v>5035</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5375</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>1525</v>
-      </c>
-      <c r="C112" s="8">
-        <v>2135</v>
+        <v>2245</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2855</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>2685</v>
-      </c>
-      <c r="C113" s="8">
-        <v>2950</v>
+        <v>3405</v>
+      </c>
+      <c r="C113" s="2">
+        <v>3670</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2">
-        <v>8350</v>
-      </c>
-      <c r="C114" s="8">
-        <v>8890</v>
+        <v>9070</v>
+      </c>
+      <c r="C114" s="2">
+        <v>9610</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2">
-        <v>1150</v>
-      </c>
-      <c r="C115" s="8">
-        <v>890</v>
+        <v>1870</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1610</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2">
-        <v>3700</v>
-      </c>
-      <c r="C116" s="8">
-        <v>4990</v>
+        <v>4420</v>
+      </c>
+      <c r="C116" s="2">
+        <v>5710</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2">
-        <v>1125</v>
-      </c>
-      <c r="C117" s="8">
-        <v>1075</v>
+        <v>1845</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1795</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2">
-        <v>2100</v>
-      </c>
-      <c r="C118" s="8">
-        <v>2575</v>
+        <v>2820</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3295</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2">
-        <v>2300</v>
-      </c>
-      <c r="C119" s="8">
-        <v>2900</v>
+        <v>3020</v>
+      </c>
+      <c r="C119" s="2">
+        <v>3620</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2">
-        <v>3000</v>
-      </c>
-      <c r="C120" s="8">
-        <v>3200</v>
+        <v>3720</v>
+      </c>
+      <c r="C120" s="2">
+        <v>3920</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121" s="2">
-        <v>6300</v>
-      </c>
-      <c r="C121" s="8">
-        <v>6400</v>
+        <v>7020</v>
+      </c>
+      <c r="C121" s="2">
+        <v>7120</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2">
-        <v>1500</v>
-      </c>
-      <c r="C122" s="8">
-        <v>1760</v>
+        <v>2220</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2480</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2">
-        <v>2390</v>
-      </c>
-      <c r="C124" s="8">
-        <v>2800</v>
+        <v>3110</v>
+      </c>
+      <c r="C124" s="2">
+        <v>3520</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>3</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B126" s="3">
-        <v>3380</v>
-      </c>
-      <c r="C126" s="6"/>
+        <v>4100</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C127" s="6"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C128" s="6"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="6"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="6"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="6"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="6"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="6"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134" s="6"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135" s="6"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136" s="6"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137" s="6"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="6"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="6"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="6"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141" s="7"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142" s="7"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143" s="7"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="7"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145" s="7"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146" s="6"/>
+      <c r="C146" s="2"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147" s="7"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148" s="7"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149" s="7"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150" s="7"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151" s="7"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152" s="7"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153" s="7"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154" s="7"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155" s="6"/>
+      <c r="C155" s="2"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156" s="7"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157" s="7"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158" s="7"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159" s="7"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160" s="7"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161" s="7"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162" s="6"/>
+      <c r="C162" s="2"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163" s="6"/>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164" s="6"/>
+      <c r="C164" s="2"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165" s="6"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166" s="6"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167" s="6"/>
+      <c r="C167" s="2"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168" s="6"/>
+      <c r="C168" s="2"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169" s="6"/>
+      <c r="C169" s="2"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170" s="6"/>
+      <c r="C170" s="2"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171" s="6"/>
+      <c r="C171" s="2"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172" s="6"/>
+      <c r="C172" s="2"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="7"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174" s="7"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175" s="7"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176" s="7"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="7"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="7"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="7"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="7"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="7"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="6"/>
+      <c r="C182" s="2"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="7"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="6"/>
+      <c r="C184" s="2"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="6"/>
+      <c r="C185" s="2"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="6"/>
+      <c r="C186" s="2"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="6"/>
+      <c r="C187" s="2"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="6"/>
+      <c r="C188" s="2"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="6"/>
+      <c r="C189" s="2"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="6"/>
+      <c r="C190" s="2"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191" s="6"/>
+      <c r="C191" s="2"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="6"/>
+      <c r="C192" s="2"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193" s="6"/>
+      <c r="C193" s="2"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194" s="6"/>
+      <c r="C194" s="2"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195" s="6"/>
+      <c r="C195" s="2"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="6"/>
+      <c r="C196" s="2"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197" s="6"/>
+      <c r="C197" s="2"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198" s="6"/>
+      <c r="C198" s="2"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199" s="6"/>
+      <c r="C199" s="2"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200" s="6"/>
+      <c r="C200" s="2"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201" s="6"/>
+      <c r="C201" s="2"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202" s="6"/>
+      <c r="C202" s="2"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="6"/>
+      <c r="C203" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
